--- a/Inventor Files/Carriage_Assembly.xlsx
+++ b/Inventor Files/Carriage_Assembly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Brusind\Documents\GitHub\HyperRail\Inventor Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C7ECFC-E58D-4DDE-AB00-74625E482DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6EFC6C-F0EC-4D89-8EE2-32CD3D8430E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="4485" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>Item</t>
   </si>
@@ -97,6 +97,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>20-2040_150mm</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t>X_CarriageBWD_V2_0</t>
+  </si>
+  <si>
+    <t>Bolt M5 12mm</t>
   </si>
   <si>
     <t/>
@@ -161,7 +167,31 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="92">
+  <fonts count="98">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -539,7 +569,49 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="92">
+  <borders count="98">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -1188,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1281,6 +1353,12 @@
     <xf numFmtId="0" fontId="89" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1913,6 +1991,51 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="904875"/>
+          <a:ext cx="1219370" cy="1219370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2230,15 +2353,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2269,280 +2391,300 @@
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="36">
+      <c r="B2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="38">
         <v>1</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>35</v>
+      <c r="E2" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="68.25" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="37">
+      <c r="B3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="39">
         <v>4</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="79" t="s">
-        <v>35</v>
+      <c r="E3" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="68.25" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="38">
+      <c r="B4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="40">
         <v>2</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>35</v>
+      <c r="E4" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="68.25" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="39">
+      <c r="B5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="41">
         <v>2</v>
       </c>
-      <c r="E5" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="81" t="s">
-        <v>35</v>
+      <c r="E5" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="86" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="68.25" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="40">
+      <c r="B6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="42">
         <v>1</v>
       </c>
-      <c r="E6" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="82" t="s">
-        <v>35</v>
+      <c r="E6" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="68.25" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="41">
+      <c r="B7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="43">
         <v>4</v>
       </c>
-      <c r="E7" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>38</v>
+      <c r="E7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="68.25" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="42">
+      <c r="B8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="44">
         <v>2</v>
       </c>
-      <c r="E8" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="84" t="s">
-        <v>35</v>
+      <c r="E8" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="68.25" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="43">
-        <v>40</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="85" t="s">
-        <v>35</v>
+      <c r="B9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="45">
+        <v>36</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="90" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="68.25" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="44">
+      <c r="B10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="46">
         <v>40</v>
       </c>
-      <c r="E10" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="86" t="s">
-        <v>39</v>
+      <c r="E10" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="68.25" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="45">
+      <c r="B11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="47">
         <v>2</v>
       </c>
-      <c r="E11" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>35</v>
+      <c r="E11" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="92" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="68.25" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="46">
+      <c r="B12" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="48">
         <v>2</v>
       </c>
-      <c r="E12" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="88" t="s">
-        <v>40</v>
+      <c r="E12" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="68.25" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="47">
+      <c r="B13" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="49">
         <v>2</v>
       </c>
-      <c r="E13" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="89" t="s">
-        <v>35</v>
+      <c r="E13" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="94" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="68.25" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="48">
+      <c r="B14" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="50">
         <v>2</v>
       </c>
-      <c r="E14" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="90" t="s">
-        <v>35</v>
+      <c r="E14" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="95" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="68.25" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="49">
+      <c r="B15" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="51">
         <v>2</v>
       </c>
-      <c r="E15" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="91" t="s">
-        <v>35</v>
+      <c r="E15" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="96" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="52">
+        <v>4</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="97" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
